--- a/result/with_base/13/arousal/s13_2.xlsx
+++ b/result/with_base/13/arousal/s13_2.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9202008843421936</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9050000011920929</v>
+        <v>0.8889508843421936</v>
       </c>
       <c r="C2" t="n">
-        <v>41678.46875</v>
+        <v>11279.0185546875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8743181824684143</v>
+        <v>0.8535976900773889</v>
       </c>
       <c r="E2" t="n">
-        <v>41681.11825284091</v>
+        <v>11280.42061121324</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.8895089328289032</v>
       </c>
       <c r="C3" t="n">
-        <v>40877.451171875</v>
+        <v>10962.8759765625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.902272722937844</v>
+        <v>0.8746717431965996</v>
       </c>
       <c r="E3" t="n">
-        <v>40878.01207386364</v>
+        <v>10963.05014935662</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.8861607015132904</v>
       </c>
       <c r="C4" t="n">
-        <v>40086.162109375</v>
+        <v>10653.84033203125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9281818216497247</v>
+        <v>0.8894432783126831</v>
       </c>
       <c r="E4" t="n">
-        <v>40084.98153409091</v>
+        <v>10653.43727022059</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.925000011920929</v>
+        <v>0.8811383843421936</v>
       </c>
       <c r="C5" t="n">
-        <v>39309.61328125</v>
+        <v>10351.90087890625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9148863608186896</v>
+        <v>0.8876050430185655</v>
       </c>
       <c r="E5" t="n">
-        <v>39309.09019886364</v>
+        <v>10351.29113051471</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.8950892984867096</v>
       </c>
       <c r="C6" t="n">
-        <v>38542.53515625</v>
+        <v>10055.0791015625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.945909093726765</v>
+        <v>0.9113707998219658</v>
       </c>
       <c r="E6" t="n">
-        <v>38541.16122159091</v>
+        <v>10054.57927389706</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C7" t="n">
-        <v>37790.736328125</v>
+        <v>9766.90966796875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.947159078988162</v>
+        <v>0.9282431707662695</v>
       </c>
       <c r="E7" t="n">
-        <v>37789.68359375</v>
+        <v>9766.18905101103</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9068080484867096</v>
       </c>
       <c r="C8" t="n">
-        <v>37051.724609375</v>
+        <v>9486.75634765625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9581818092953075</v>
+        <v>0.9099921233513776</v>
       </c>
       <c r="E8" t="n">
-        <v>37050.60475852273</v>
+        <v>9486.083639705883</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9375</v>
+        <v>0.9073660671710968</v>
       </c>
       <c r="C9" t="n">
-        <v>36327.599609375</v>
+        <v>9212.79150390625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9480681852860884</v>
+        <v>0.9323135509210474</v>
       </c>
       <c r="E9" t="n">
-        <v>36325.96626420454</v>
+        <v>9211.898092830883</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C10" t="n">
-        <v>35615.66796875</v>
+        <v>8945.8564453125</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9623863697052002</v>
+        <v>0.9516806707662695</v>
       </c>
       <c r="E10" t="n">
-        <v>35613.63636363636</v>
+        <v>8945.057100183823</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9375</v>
+        <v>0.9040178656578064</v>
       </c>
       <c r="C11" t="n">
-        <v>34917.09375</v>
+        <v>8685.71337890625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9648863673210144</v>
+        <v>0.9587053586454952</v>
       </c>
       <c r="E11" t="n">
-        <v>34915.21555397727</v>
+        <v>8685.087086397059</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9375</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C12" t="n">
-        <v>34231.60546875</v>
+        <v>8433.09619140625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9587500095367432</v>
+        <v>0.9545693292337305</v>
       </c>
       <c r="E12" t="n">
-        <v>34229.89630681818</v>
+        <v>8432.42147288603</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9375</v>
+        <v>0.9202008843421936</v>
       </c>
       <c r="C13" t="n">
-        <v>33559.71875</v>
+        <v>8186.791748046875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9673863540996205</v>
+        <v>0.957589286215165</v>
       </c>
       <c r="E13" t="n">
-        <v>33557.18465909091</v>
+        <v>8186.176413143382</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9029017984867096</v>
       </c>
       <c r="C14" t="n">
-        <v>32899.17578125</v>
+        <v>7947.440185546875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9765909259969537</v>
+        <v>0.9556197489009184</v>
       </c>
       <c r="E14" t="n">
-        <v>32896.67826704546</v>
+        <v>7946.679658777573</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9151785671710968</v>
       </c>
       <c r="C15" t="n">
-        <v>32250.919921875</v>
+        <v>7714.341796875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9768181985074823</v>
+        <v>0.9494485294117647</v>
       </c>
       <c r="E15" t="n">
-        <v>32249.14879261364</v>
+        <v>7713.52628102022</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9157366156578064</v>
       </c>
       <c r="C16" t="n">
-        <v>31615.17578125</v>
+        <v>7487.461181640625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9717045534740795</v>
+        <v>0.956473213784835</v>
       </c>
       <c r="E16" t="n">
-        <v>31613.91761363636</v>
+        <v>7486.693359375</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.8911830484867096</v>
       </c>
       <c r="C17" t="n">
-        <v>30991.814453125</v>
+        <v>7266.779541015625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9802272807468068</v>
+        <v>0.9627100825309753</v>
       </c>
       <c r="E17" t="n">
-        <v>30990.38263494318</v>
+        <v>7265.967112821691</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9280133843421936</v>
       </c>
       <c r="C18" t="n">
-        <v>30380.1943359375</v>
+        <v>7051.9814453125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9846591028300199</v>
+        <v>0.9671743687461404</v>
       </c>
       <c r="E18" t="n">
-        <v>30378.59108664773</v>
+        <v>7051.226734834559</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9190848171710968</v>
       </c>
       <c r="C19" t="n">
-        <v>29780.1943359375</v>
+        <v>6842.9091796875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9829545617103577</v>
+        <v>0.9726234253715066</v>
       </c>
       <c r="E19" t="n">
-        <v>29778.55717329546</v>
+        <v>6842.331801470588</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C20" t="n">
-        <v>29191.408203125</v>
+        <v>6639.707275390625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9827272891998291</v>
+        <v>0.981026786215165</v>
       </c>
       <c r="E20" t="n">
-        <v>29189.80930397727</v>
+        <v>6639.116670496323</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9202008843421936</v>
       </c>
       <c r="C21" t="n">
-        <v>28613.3427734375</v>
+        <v>6442.134765625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9897727370262146</v>
+        <v>0.9682247884133283</v>
       </c>
       <c r="E21" t="n">
-        <v>28612.09765625</v>
+        <v>6441.553998161765</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9162946343421936</v>
       </c>
       <c r="C22" t="n">
-        <v>28047.337890625</v>
+        <v>6249.812255859375</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9702272848649458</v>
+        <v>0.9793198529411765</v>
       </c>
       <c r="E22" t="n">
-        <v>28045.74733664773</v>
+        <v>6249.27099609375</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C23" t="n">
-        <v>27490.9228515625</v>
+        <v>6062.847900390625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9867045500061729</v>
+        <v>0.9797794117647058</v>
       </c>
       <c r="E23" t="n">
-        <v>27489.57315340909</v>
+        <v>6062.359748391544</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C24" t="n">
-        <v>26945.01171875</v>
+        <v>5881.157470703125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.991136372089386</v>
+        <v>0.9819459038622239</v>
       </c>
       <c r="E24" t="n">
-        <v>26944.14577414773</v>
+        <v>5880.61287913603</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9375</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C25" t="n">
-        <v>26410.8642578125</v>
+        <v>5704.46337890625</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9771591045639731</v>
+        <v>0.9769564060603871</v>
       </c>
       <c r="E25" t="n">
-        <v>26409.36647727273</v>
+        <v>5703.87410960478</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.92578125</v>
       </c>
       <c r="C26" t="n">
-        <v>25885.5126953125</v>
+        <v>5532.621826171875</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9912500056353483</v>
+        <v>0.9731486334520227</v>
       </c>
       <c r="E26" t="n">
-        <v>25884.29740767046</v>
+        <v>5532.0517578125</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C27" t="n">
-        <v>25371.015625</v>
+        <v>5365.559814453125</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9832954623482444</v>
+        <v>0.9763655452167287</v>
       </c>
       <c r="E27" t="n">
-        <v>25369.61363636364</v>
+        <v>5364.976045496323</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C28" t="n">
-        <v>24866.21484375</v>
+        <v>5202.952392578125</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9845454692840576</v>
+        <v>0.9871323529411765</v>
       </c>
       <c r="E28" t="n">
-        <v>24864.55983664773</v>
+        <v>5202.47305836397</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C29" t="n">
-        <v>24370.0556640625</v>
+        <v>5045.087646484375</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9837841391563416</v>
       </c>
       <c r="E29" t="n">
-        <v>24368.95436789773</v>
+        <v>5044.563907398897</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C30" t="n">
-        <v>23884.1884765625</v>
+        <v>4891.47509765625</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9873863729563627</v>
+        <v>0.9843093472368577</v>
       </c>
       <c r="E30" t="n">
-        <v>23882.96715198864</v>
+        <v>4891.04825367647</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9174107015132904</v>
       </c>
       <c r="C31" t="n">
-        <v>23406.8203125</v>
+        <v>4742.39208984375</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9814206922755522</v>
       </c>
       <c r="E31" t="n">
-        <v>23406.01136363636</v>
+        <v>4741.832289751838</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C32" t="n">
-        <v>22939.255859375</v>
+        <v>4597.26025390625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9927272796630859</v>
+        <v>0.9871323529411765</v>
       </c>
       <c r="E32" t="n">
-        <v>22938.25426136364</v>
+        <v>4596.744571461397</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C33" t="n">
-        <v>22480.0390625</v>
+        <v>4456.239013671875</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9907954606142911</v>
+        <v>0.9801076685681063</v>
       </c>
       <c r="E33" t="n">
-        <v>22479.34499289773</v>
+        <v>4455.79598460478</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.921875</v>
       </c>
       <c r="C34" t="n">
-        <v>22030.01171875</v>
+        <v>4319.212646484375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.980042015804964</v>
       </c>
       <c r="E34" t="n">
-        <v>22029.13334517046</v>
+        <v>4318.765337775735</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.92578125</v>
       </c>
       <c r="C35" t="n">
-        <v>21588.4658203125</v>
+        <v>4186.039794921875</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9925000071525574</v>
+        <v>0.9782037805108463</v>
       </c>
       <c r="E35" t="n">
-        <v>21587.47389914773</v>
+        <v>4185.611529181985</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.92578125</v>
       </c>
       <c r="C36" t="n">
-        <v>21154.7470703125</v>
+        <v>4056.549194335938</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9845719547832713</v>
       </c>
       <c r="E36" t="n">
-        <v>21154.20614346591</v>
+        <v>4056.173957375919</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9375</v>
+        <v>0.9073660671710968</v>
       </c>
       <c r="C37" t="n">
-        <v>20730.0546875</v>
+        <v>3930.963134765625</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9923863681879911</v>
+        <v>0.9675682783126831</v>
       </c>
       <c r="E37" t="n">
-        <v>20729.22958096591</v>
+        <v>3930.466667624081</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C38" t="n">
-        <v>20313.3662109375</v>
+        <v>3808.7177734375</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9900000095367432</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="E38" t="n">
-        <v>20312.27894176136</v>
+        <v>3808.304586971507</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C39" t="n">
-        <v>19904.130859375</v>
+        <v>3689.903076171875</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9893181920051575</v>
+        <v>0.9889049354721519</v>
       </c>
       <c r="E39" t="n">
-        <v>19903.28639914773</v>
+        <v>3689.522446576287</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C40" t="n">
-        <v>19502.4189453125</v>
+        <v>3574.637329101562</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9713103981579051</v>
       </c>
       <c r="E40" t="n">
-        <v>19501.99982244318</v>
+        <v>3574.242546530331</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C41" t="n">
-        <v>19109.21484375</v>
+        <v>3462.562377929688</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9871591004458341</v>
+        <v>0.9754464275696698</v>
       </c>
       <c r="E41" t="n">
-        <v>19108.49928977273</v>
+        <v>3462.192124310662</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9302455484867096</v>
       </c>
       <c r="C42" t="n">
-        <v>18723.564453125</v>
+        <v>3353.720458984375</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9761363701386885</v>
+        <v>0.9714417001780342</v>
       </c>
       <c r="E42" t="n">
-        <v>18722.44300426136</v>
+        <v>3353.355928308823</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9375</v>
       </c>
       <c r="C43" t="n">
-        <v>18344.2802734375</v>
+        <v>3247.9912109375</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9927272796630859</v>
+        <v>0.9718356097445768</v>
       </c>
       <c r="E43" t="n">
-        <v>18343.56729403409</v>
+        <v>3247.662999770221</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9162946343421936</v>
       </c>
       <c r="C44" t="n">
-        <v>17972.5625</v>
+        <v>3145.38525390625</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9902272820472717</v>
+        <v>0.9584427510990816</v>
       </c>
       <c r="E44" t="n">
-        <v>17972.03071732954</v>
+        <v>3145.045754825368</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C45" t="n">
-        <v>17608.2119140625</v>
+        <v>3045.507202148438</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.981026786215165</v>
       </c>
       <c r="E45" t="n">
-        <v>17607.58025568182</v>
+        <v>3045.227079503677</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C46" t="n">
-        <v>17250.427734375</v>
+        <v>2948.651733398438</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9827993687461404</v>
       </c>
       <c r="E46" t="n">
-        <v>17250.02379261364</v>
+        <v>2948.369700712316</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9112723171710968</v>
       </c>
       <c r="C47" t="n">
-        <v>16899.876953125</v>
+        <v>2854.757934570312</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9894318255511197</v>
+        <v>0.9514837194891537</v>
       </c>
       <c r="E47" t="n">
-        <v>16899.33114346591</v>
+        <v>2854.438663258272</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C48" t="n">
-        <v>16555.6640625</v>
+        <v>2763.278686523438</v>
       </c>
       <c r="D48" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9806328766486224</v>
       </c>
       <c r="E48" t="n">
-        <v>16555.27095170454</v>
+        <v>2763.008932674632</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C49" t="n">
-        <v>16218.0732421875</v>
+        <v>2674.654418945312</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9647452726083643</v>
       </c>
       <c r="E49" t="n">
-        <v>16217.80353338068</v>
+        <v>2674.382080078125</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9168526828289032</v>
       </c>
       <c r="C50" t="n">
-        <v>15887.29296875</v>
+        <v>2588.536376953125</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9897727370262146</v>
+        <v>0.9823398099226111</v>
       </c>
       <c r="E50" t="n">
-        <v>15886.80522017045</v>
+        <v>2588.256117876838</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,872 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9202008843421936</v>
       </c>
       <c r="C51" t="n">
-        <v>15562.70361328125</v>
+        <v>2504.967407226562</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9731486334520227</v>
       </c>
       <c r="E51" t="n">
-        <v>15562.0615234375</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15244.0830078125</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9896590980616483</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15243.60724431818</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C53" t="n">
-        <v>14931.7236328125</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E53" t="n">
-        <v>14931.14364346591</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14625.236328125</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9965909123420715</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14624.70685369318</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14324.60302734375</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9934090971946716</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14324.13636363636</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14029.67919921875</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9950000047683716</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14029.3095703125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13740.42529296875</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9932954582301053</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13740.14098011364</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13457.0166015625</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9905681881037626</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13456.50896661932</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13178.65478515625</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9956818222999573</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13178.31143465909</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C60" t="n">
-        <v>12905.69970703125</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9935227307406339</v>
-      </c>
-      <c r="E60" t="n">
-        <v>12905.49112215909</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12638.1376953125</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12637.87952769886</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12375.67822265625</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12375.43172940341</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12118.28662109375</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9945454597473145</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12118.04172585227</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11865.78564453125</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11865.59153053977</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11618.48095703125</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9934090971946716</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11618.06871448864</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11375.66845703125</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9882954629984769</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11375.31995738636</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11137.4599609375</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11137.17231889205</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C68" t="n">
-        <v>10903.99560546875</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9935227307406339</v>
-      </c>
-      <c r="E68" t="n">
-        <v>10903.71306818182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10674.9501953125</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10674.72176846591</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10450.47509765625</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9876136454668912</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10450.23446377841</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10230.39111328125</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9862500104037198</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10230.07333096591</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10014.26611328125</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10014.14888139205</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9802.65625</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9802.449928977272</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9595.19482421875</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9926136406985197</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9594.895862926136</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9391.599609375</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9884091019630432</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9391.370649857954</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9191.98095703125</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9956818222999573</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9191.792347301136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C77" t="n">
-        <v>8996.33056640625</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E77" t="n">
-        <v>8996.135564630682</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8804.53515625</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.994772732257843</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8804.311967329546</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8616.5400390625</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9829545508731495</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8616.275568181818</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8432.0791015625</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9923863681879911</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8431.86141690341</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8251.2001953125</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8251.078746448864</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9841766649278386</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9841766649278386</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1851851851851852</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9841766649278386</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4074074074074074</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.004694835680751174</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9841766649278386</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4074074074074074</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.004694835680751174</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9841766649278386</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7407407407407407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.009389671361502348</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9841766649278386</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7407407407407407</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.009389671361502348</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9841766649278386</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9259259259259259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.07511737089201878</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9841766649278386</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9259259259259259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.07511737089201878</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9841766649278386</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9629629629629629</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.2629107981220657</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9841766649278386</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9629629629629629</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.2629107981220657</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9841766649278386</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9841766649278386</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9840897235263433</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6854460093896714</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9840897235263433</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7276995305164319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.03703703703703703</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9840897235263433</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7417840375586855</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.03703703703703703</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9840897235263433</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7511737089201878</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.03703703703703703</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9840897235263433</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7605633802816901</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.03703703703703703</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9840897235263433</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7746478873239436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.03703703703703703</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9840897235263433</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9248826291079812</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9840897235263433</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9248826291079812</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9840897235263433</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9906103286384976</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.2592592592592592</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9840897235263433</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9906103286384976</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.2592592592592592</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9840897235263433</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9953051643192489</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.5925925925925926</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9840897235263433</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9953051643192489</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.5925925925925926</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9840897235263433</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9840897235263433</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>2504.698342715993</v>
       </c>
     </row>
   </sheetData>
